--- a/data/georgia_census/samegrelo/xobi/education_graduates.xlsx
+++ b/data/georgia_census/samegrelo/xobi/education_graduates.xlsx
@@ -1833,13 +1833,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5230FF16-4437-4AD1-97EE-871E5195396F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C09EE19-4BD1-418D-8116-755EC41E8528}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{736C50CE-5EAD-4C9D-991B-CDA271724D43}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5236826D-66C7-4B79-AC08-BE8E79E89746}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5157C400-F6FC-4AAD-9FD8-E1EA15493A13}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{040C9242-AEA0-42BA-936F-A98AB43CE9A3}"/>
 </file>